--- a/data/134/DEUSTATIS/National accounts - Gross value added years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - Gross value added years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>National accounts - Gross value added (nominal/price-
 adjusted): Germany, years, industries</t>
@@ -121,6 +121,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>At current prices (bn EUR)</t>
   </si>
   <si>
@@ -199,7 +202,7 @@
     <t>Manufacturing is part of "Industry, excluding construction".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:34:17</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:34:22</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -827,6 +830,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -959,6 +966,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -973,6 +984,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -1146,6 +1161,7 @@
     <col min="31" max="31" width="9.03125" customWidth="true"/>
     <col min="32" max="32" width="9.03125" customWidth="true"/>
     <col min="33" max="33" width="9.03125" customWidth="true"/>
+    <col min="34" max="34" width="9.03125" customWidth="true"/>
     <col min="1" max="1" width="18.19921875" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1165,118 +1181,121 @@
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="true">
-      <c r="A4" t="s" s="87">
+      <c r="A4" t="s" s="89">
         <v>3</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" t="s" s="89">
+      <c r="B4" s="90"/>
+      <c r="C4" t="s" s="91">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="90">
+      <c r="D4" t="s" s="92">
         <v>5</v>
       </c>
-      <c r="E4" t="s" s="91">
+      <c r="E4" t="s" s="93">
         <v>6</v>
       </c>
-      <c r="F4" t="s" s="92">
+      <c r="F4" t="s" s="94">
         <v>7</v>
       </c>
-      <c r="G4" t="s" s="93">
+      <c r="G4" t="s" s="95">
         <v>8</v>
       </c>
-      <c r="H4" t="s" s="94">
+      <c r="H4" t="s" s="96">
         <v>9</v>
       </c>
-      <c r="I4" t="s" s="95">
+      <c r="I4" t="s" s="97">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="96">
+      <c r="J4" t="s" s="98">
         <v>11</v>
       </c>
-      <c r="K4" t="s" s="97">
+      <c r="K4" t="s" s="99">
         <v>12</v>
       </c>
-      <c r="L4" t="s" s="98">
+      <c r="L4" t="s" s="100">
         <v>13</v>
       </c>
-      <c r="M4" t="s" s="99">
+      <c r="M4" t="s" s="101">
         <v>14</v>
       </c>
-      <c r="N4" t="s" s="100">
+      <c r="N4" t="s" s="102">
         <v>15</v>
       </c>
-      <c r="O4" t="s" s="101">
+      <c r="O4" t="s" s="103">
         <v>16</v>
       </c>
-      <c r="P4" t="s" s="102">
+      <c r="P4" t="s" s="104">
         <v>17</v>
       </c>
-      <c r="Q4" t="s" s="103">
+      <c r="Q4" t="s" s="105">
         <v>18</v>
       </c>
-      <c r="R4" t="s" s="104">
+      <c r="R4" t="s" s="106">
         <v>19</v>
       </c>
-      <c r="S4" t="s" s="105">
+      <c r="S4" t="s" s="107">
         <v>20</v>
       </c>
-      <c r="T4" t="s" s="106">
+      <c r="T4" t="s" s="108">
         <v>21</v>
       </c>
-      <c r="U4" t="s" s="107">
+      <c r="U4" t="s" s="109">
         <v>22</v>
       </c>
-      <c r="V4" t="s" s="108">
+      <c r="V4" t="s" s="110">
         <v>23</v>
       </c>
-      <c r="W4" t="s" s="109">
+      <c r="W4" t="s" s="111">
         <v>24</v>
       </c>
-      <c r="X4" t="s" s="110">
+      <c r="X4" t="s" s="112">
         <v>25</v>
       </c>
-      <c r="Y4" t="s" s="111">
+      <c r="Y4" t="s" s="113">
         <v>26</v>
       </c>
-      <c r="Z4" t="s" s="112">
+      <c r="Z4" t="s" s="114">
         <v>27</v>
       </c>
-      <c r="AA4" t="s" s="113">
+      <c r="AA4" t="s" s="115">
         <v>28</v>
       </c>
-      <c r="AB4" t="s" s="114">
+      <c r="AB4" t="s" s="116">
         <v>29</v>
       </c>
-      <c r="AC4" t="s" s="115">
+      <c r="AC4" t="s" s="117">
         <v>30</v>
       </c>
-      <c r="AD4" t="s" s="116">
+      <c r="AD4" t="s" s="118">
         <v>31</v>
       </c>
-      <c r="AE4" t="s" s="117">
+      <c r="AE4" t="s" s="119">
         <v>32</v>
       </c>
-      <c r="AF4" t="s" s="118">
+      <c r="AF4" t="s" s="120">
         <v>33</v>
       </c>
-      <c r="AG4" t="s" s="119">
+      <c r="AG4" t="s" s="121">
         <v>34</v>
+      </c>
+      <c r="AH4" t="s" s="122">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="50.6" customHeight="true">
       <c r="A5" t="s" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n" s="10">
         <v>17.468</v>
@@ -1368,13 +1387,16 @@
       <c r="AG6" t="n" s="10">
         <v>24.762</v>
       </c>
+      <c r="AH6" t="n" s="10">
+        <v>28.575</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="13">
         <v>39</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>38</v>
       </c>
       <c r="D7" t="n" s="10">
         <v>444.615</v>
@@ -1466,13 +1488,16 @@
       <c r="AG7" t="n" s="10">
         <v>715.829</v>
       </c>
+      <c r="AH7" t="n" s="10">
+        <v>758.224</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n" s="10">
         <v>394.02</v>
@@ -1564,13 +1589,16 @@
       <c r="AG8" t="n" s="10">
         <v>611.888</v>
       </c>
+      <c r="AH8" t="n" s="10">
+        <v>652.935</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n" s="10">
         <v>87.011</v>
@@ -1662,13 +1690,16 @@
       <c r="AG9" t="n" s="10">
         <v>177.643</v>
       </c>
+      <c r="AH9" t="n" s="10">
+        <v>191.93</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n" s="10">
         <v>232.069</v>
@@ -1760,13 +1791,16 @@
       <c r="AG10" t="n" s="10">
         <v>479.546</v>
       </c>
+      <c r="AH10" t="n" s="10">
+        <v>518.439</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n" s="10">
         <v>50.765</v>
@@ -1858,13 +1892,16 @@
       <c r="AG11" t="n" s="10">
         <v>153.349</v>
       </c>
+      <c r="AH11" t="n" s="10">
+        <v>161.834</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n" s="10">
         <v>67.87</v>
@@ -1956,13 +1993,16 @@
       <c r="AG12" t="n" s="10">
         <v>121.815</v>
       </c>
+      <c r="AH12" t="n" s="10">
+        <v>122.125</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n" s="10">
         <v>124.765</v>
@@ -2054,13 +2094,16 @@
       <c r="AG13" t="n" s="10">
         <v>336.743</v>
       </c>
+      <c r="AH13" t="n" s="10">
+        <v>346.255</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n" s="10">
         <v>132.346</v>
@@ -2152,13 +2195,16 @@
       <c r="AG14" t="n" s="10">
         <v>337.134</v>
       </c>
+      <c r="AH14" t="n" s="10">
+        <v>366.761</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n" s="10">
         <v>228.732</v>
@@ -2250,13 +2296,16 @@
       <c r="AG15" t="n" s="10">
         <v>592.478</v>
       </c>
+      <c r="AH15" t="n" s="10">
+        <v>620.216</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n" s="10">
         <v>57.355</v>
@@ -2348,13 +2397,16 @@
       <c r="AG16" t="n" s="10">
         <v>111.023</v>
       </c>
+      <c r="AH16" t="n" s="10">
+        <v>114.586</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n" s="10">
         <v>1442.996</v>
@@ -2446,21 +2498,24 @@
       <c r="AG17" t="n" s="10">
         <v>3050.322</v>
       </c>
+      <c r="AH17" t="n" s="10">
+        <v>3228.945</v>
+      </c>
     </row>
     <row r="18" ht="50.6" customHeight="true">
       <c r="A18" t="s" s="14">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" t="n" s="10">
         <v>133.74</v>
@@ -2552,13 +2607,16 @@
       <c r="AG19" t="n" s="10">
         <v>99.45</v>
       </c>
+      <c r="AH19" t="n" s="10">
+        <v>97.84</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s" s="13">
         <v>39</v>
-      </c>
-      <c r="C20" t="s" s="13">
-        <v>38</v>
       </c>
       <c r="D20" t="n" s="10">
         <v>78.74</v>
@@ -2650,13 +2708,16 @@
       <c r="AG20" t="n" s="10">
         <v>97.95</v>
       </c>
+      <c r="AH20" t="n" s="10">
+        <v>101.96</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" t="n" s="10">
         <v>77.62</v>
@@ -2748,13 +2809,16 @@
       <c r="AG21" t="n" s="10">
         <v>96.32</v>
       </c>
+      <c r="AH21" t="n" s="10">
+        <v>100.83</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="n" s="10">
         <v>124.49</v>
@@ -2846,13 +2910,16 @@
       <c r="AG22" t="n" s="10">
         <v>108.15</v>
       </c>
+      <c r="AH22" t="n" s="10">
+        <v>107.58</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n" s="10">
         <v>70.76</v>
@@ -2944,13 +3011,16 @@
       <c r="AG23" t="n" s="10">
         <v>103.46</v>
       </c>
+      <c r="AH23" t="n" s="10">
+        <v>106.55</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" t="n" s="10">
         <v>27.8</v>
@@ -3042,13 +3112,16 @@
       <c r="AG24" t="n" s="10">
         <v>119.5</v>
       </c>
+      <c r="AH24" t="n" s="10">
+        <v>123.56</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n" s="10">
         <v>126.33</v>
@@ -3140,13 +3213,16 @@
       <c r="AG25" t="n" s="10">
         <v>95.81</v>
       </c>
+      <c r="AH25" t="n" s="10">
+        <v>95.48</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n" s="10">
         <v>50.68</v>
@@ -3238,13 +3314,16 @@
       <c r="AG26" t="n" s="10">
         <v>102.27</v>
       </c>
+      <c r="AH26" t="n" s="10">
+        <v>103.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" t="n" s="10">
         <v>62.63</v>
@@ -3336,13 +3415,16 @@
       <c r="AG27" t="n" s="10">
         <v>102.5</v>
       </c>
+      <c r="AH27" t="n" s="10">
+        <v>108.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="n" s="10">
         <v>72.51</v>
@@ -3434,13 +3516,16 @@
       <c r="AG28" t="n" s="10">
         <v>103.53</v>
       </c>
+      <c r="AH28" t="n" s="10">
+        <v>106.88</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n" s="10">
         <v>89.36</v>
@@ -3532,13 +3617,16 @@
       <c r="AG29" t="n" s="10">
         <v>92.52</v>
       </c>
+      <c r="AH29" t="n" s="10">
+        <v>93.36</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n" s="10">
         <v>71.99</v>
@@ -3630,21 +3718,24 @@
       <c r="AG30" t="n" s="10">
         <v>102.1</v>
       </c>
+      <c r="AH30" t="n" s="10">
+        <v>105.09</v>
+      </c>
     </row>
     <row r="31" ht="50.6" customHeight="true">
       <c r="A31" t="s" s="14">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n" s="10">
         <v>27.711</v>
@@ -3736,13 +3827,16 @@
       <c r="AG32" t="n" s="10">
         <v>20.606</v>
       </c>
+      <c r="AH32" t="n" s="10">
+        <v>20.272</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s" s="13">
         <v>39</v>
-      </c>
-      <c r="C33" t="s" s="13">
-        <v>38</v>
       </c>
       <c r="D33" t="n" s="10">
         <v>547.624</v>
@@ -3834,13 +3928,16 @@
       <c r="AG33" t="n" s="10">
         <v>681.227</v>
       </c>
+      <c r="AH33" t="n" s="10">
+        <v>709.115</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" t="n" s="10">
         <v>477.956</v>
@@ -3932,13 +4029,16 @@
       <c r="AG34" t="n" s="10">
         <v>593.104</v>
       </c>
+      <c r="AH34" t="n" s="10">
+        <v>620.875</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n" s="10">
         <v>155.497</v>
@@ -4030,13 +4130,16 @@
       <c r="AG35" t="n" s="10">
         <v>135.087</v>
       </c>
+      <c r="AH35" t="n" s="10">
+        <v>134.375</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" t="n" s="10">
         <v>304.508</v>
@@ -4128,13 +4231,16 @@
       <c r="AG36" t="n" s="10">
         <v>445.229</v>
       </c>
+      <c r="AH36" t="n" s="10">
+        <v>458.526</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" t="n" s="10">
         <v>35.044</v>
@@ -4226,13 +4332,16 @@
       <c r="AG37" t="n" s="10">
         <v>150.638</v>
       </c>
+      <c r="AH37" t="n" s="10">
+        <v>155.756</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="n" s="10">
         <v>151.379</v>
@@ -4324,13 +4433,16 @@
       <c r="AG38" t="n" s="10">
         <v>114.807</v>
       </c>
+      <c r="AH38" t="n" s="10">
+        <v>114.412</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" t="n" s="10">
         <v>151.678</v>
@@ -4422,13 +4534,16 @@
       <c r="AG39" t="n" s="10">
         <v>306.08</v>
       </c>
+      <c r="AH39" t="n" s="10">
+        <v>308.923</v>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" t="n" s="10">
         <v>192.183</v>
@@ -4520,13 +4635,16 @@
       <c r="AG40" t="n" s="10">
         <v>314.525</v>
       </c>
+      <c r="AH40" t="n" s="10">
+        <v>332.108</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" t="n" s="10">
         <v>355.552</v>
@@ -4618,13 +4736,16 @@
       <c r="AG41" t="n" s="10">
         <v>507.658</v>
       </c>
+      <c r="AH41" t="n" s="10">
+        <v>524.085</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" t="n" s="10">
         <v>96.684</v>
@@ -4716,13 +4837,16 @@
       <c r="AG42" t="n" s="10">
         <v>100.103</v>
       </c>
+      <c r="AH42" t="n" s="10">
+        <v>101.012</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D43" t="n" s="10">
         <v>1959.582</v>
@@ -4814,24 +4938,27 @@
       <c r="AG43" t="n" s="10">
         <v>2779.182</v>
       </c>
+      <c r="AH43" t="n" s="10">
+        <v>2860.571</v>
+      </c>
     </row>
     <row r="44" ht="50.6" customHeight="true">
       <c r="A44" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" t="n" s="10">
         <v>17.024</v>
@@ -4920,16 +5047,19 @@
       <c r="AG45" t="n" s="10">
         <v>27.514</v>
       </c>
+      <c r="AH45" t="n" s="10">
+        <v>24.362</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="C46" t="s" s="13">
-        <v>38</v>
-      </c>
       <c r="D46" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E46" t="n" s="10">
         <v>431.796</v>
@@ -5018,16 +5148,19 @@
       <c r="AG46" t="n" s="10">
         <v>705.375</v>
       </c>
+      <c r="AH46" t="n" s="10">
+        <v>745.124</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" t="n" s="10">
         <v>382.068</v>
@@ -5116,16 +5249,19 @@
       <c r="AG47" t="n" s="10">
         <v>607.513</v>
       </c>
+      <c r="AH47" t="n" s="10">
+        <v>640.535</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E48" t="n" s="10">
         <v>92.876</v>
@@ -5214,16 +5350,19 @@
       <c r="AG48" t="n" s="10">
         <v>166.592</v>
       </c>
+      <c r="AH48" t="n" s="10">
+        <v>176.718</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" t="n" s="10">
         <v>232.984</v>
@@ -5312,16 +5451,19 @@
       <c r="AG49" t="n" s="10">
         <v>475.17</v>
       </c>
+      <c r="AH49" t="n" s="10">
+        <v>493.87</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E50" t="n" s="10">
         <v>55.948</v>
@@ -5410,16 +5552,19 @@
       <c r="AG50" t="n" s="10">
         <v>150.17</v>
       </c>
+      <c r="AH50" t="n" s="10">
+        <v>158.555</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E51" t="n" s="10">
         <v>69.469</v>
@@ -5508,16 +5653,19 @@
       <c r="AG51" t="n" s="10">
         <v>122.05</v>
       </c>
+      <c r="AH51" t="n" s="10">
+        <v>121.392</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E52" t="n" s="10">
         <v>130.947</v>
@@ -5606,16 +5754,19 @@
       <c r="AG52" t="n" s="10">
         <v>327.782</v>
       </c>
+      <c r="AH52" t="n" s="10">
+        <v>339.869</v>
+      </c>
     </row>
     <row r="53">
       <c r="B53" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" t="n" s="10">
         <v>139.499</v>
@@ -5704,16 +5855,19 @@
       <c r="AG53" t="n" s="10">
         <v>332.017</v>
       </c>
+      <c r="AH53" t="n" s="10">
+        <v>355.968</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E54" t="n" s="10">
         <v>238.952</v>
@@ -5802,16 +5956,19 @@
       <c r="AG54" t="n" s="10">
         <v>564.448</v>
       </c>
+      <c r="AH54" t="n" s="10">
+        <v>611.648</v>
+      </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E55" t="n" s="10">
         <v>61.286</v>
@@ -5900,16 +6057,19 @@
       <c r="AG55" t="n" s="10">
         <v>107.715</v>
       </c>
+      <c r="AH55" t="n" s="10">
+        <v>112.023</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E56" t="n" s="10">
         <v>1470.781</v>
@@ -5998,61 +6158,64 @@
       <c r="AG56" t="n" s="10">
         <v>2978.833</v>
       </c>
+      <c r="AH56" t="n" s="10">
+        <v>3139.529</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="A3:AH3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:AG5"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A31:AG31"/>
-    <mergeCell ref="A44:AG44"/>
-    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A5:AH5"/>
+    <mergeCell ref="A18:AH18"/>
+    <mergeCell ref="A31:AH31"/>
+    <mergeCell ref="A44:AH44"/>
+    <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:34:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:34:25&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>